--- a/output/fit_clients/fit_round_272.xlsx
+++ b/output/fit_clients/fit_round_272.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1903237517.798333</v>
+        <v>2018440787.006046</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1064203799938698</v>
+        <v>0.09830391237860014</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04517327336886747</v>
+        <v>0.04270159945325242</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>951618741.528338</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2284084965.440264</v>
+        <v>2554327740.445968</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1150699676505271</v>
+        <v>0.1703845286412091</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03041437171498138</v>
+        <v>0.0388867891664189</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1142042566.770129</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4872569138.793871</v>
+        <v>3292197254.318267</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1111710168451589</v>
+        <v>0.1337539665828575</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02331664992809678</v>
+        <v>0.02937950620728011</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>98</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2436284645.380586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3500433831.989732</v>
+        <v>3318754044.4642</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08007395001653159</v>
+        <v>0.1056812022823387</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03710294294467391</v>
+        <v>0.046316426067027</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1750216952.766138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2787404053.067049</v>
+        <v>2199030635.652553</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1480343293190786</v>
+        <v>0.1117250685633063</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05367875869080727</v>
+        <v>0.05466787407420877</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>47</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1393701970.90885</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2566746170.724549</v>
+        <v>2081554419.449589</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09921885247389289</v>
+        <v>0.09734770403660123</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03859948344470812</v>
+        <v>0.03808731824163874</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>85</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1283373091.930252</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2416017243.590418</v>
+        <v>2689733339.953502</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1705577562333998</v>
+        <v>0.1417814634974462</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02722647353661189</v>
+        <v>0.02528912115278133</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>87</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1208008619.603086</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1576348612.686134</v>
+        <v>2020161401.078897</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1238148959438275</v>
+        <v>0.1448493033754456</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02307467734316</v>
+        <v>0.02352635615661233</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>788174391.7170759</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5116645445.125275</v>
+        <v>5623107758.387105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1478006035055407</v>
+        <v>0.1889832980346983</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03677523030127338</v>
+        <v>0.04616936904947948</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>114</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2558322830.938114</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2950115328.866391</v>
+        <v>2736930591.957219</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1474294644509943</v>
+        <v>0.1212257894110205</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04804286974859238</v>
+        <v>0.04067982668501456</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>112</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1475057603.877825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2903903872.500015</v>
+        <v>2398983642.360093</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1979868262023414</v>
+        <v>0.1712304094687003</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05253260177049807</v>
+        <v>0.04139511156804658</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>93</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1451951945.457686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4884275274.738141</v>
+        <v>4256100314.687097</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06813181677202267</v>
+        <v>0.09776190439782054</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02675105030720888</v>
+        <v>0.01911427578134459</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>91</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2442137647.379696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2514196729.457479</v>
+        <v>2443635174.364749</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1350953064410719</v>
+        <v>0.1819716592035839</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0270903670960358</v>
+        <v>0.03623932777325751</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1257098434.333308</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1347006723.564332</v>
+        <v>1438232392.852113</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07796580902541529</v>
+        <v>0.1059572632438921</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0300619374058557</v>
+        <v>0.0426450632907699</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>673503412.5971153</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2027554543.971653</v>
+        <v>2771809346.412878</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1052601904218944</v>
+        <v>0.110119958692957</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04946380509728744</v>
+        <v>0.03544540322728169</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>51</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1013777345.000382</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3765061553.356771</v>
+        <v>5176984505.894594</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1449068593869487</v>
+        <v>0.1187418926363554</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04224428278290338</v>
+        <v>0.0448529700415125</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>79</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1882530822.896993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3816173133.963727</v>
+        <v>3736663959.989009</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1241224647980354</v>
+        <v>0.1124569451163448</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02203100504340496</v>
+        <v>0.02763343734891671</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>89</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1908086538.107758</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>852448717.7986414</v>
+        <v>1237138430.837322</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1506883230235766</v>
+        <v>0.1841120838004881</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02090780349058724</v>
+        <v>0.02662326848392434</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>426224352.2044668</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2203566523.417591</v>
+        <v>2124275411.232185</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1152006331917465</v>
+        <v>0.1174517006627949</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02652451753533639</v>
+        <v>0.0261153901489842</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1101783266.374891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2610694689.280818</v>
+        <v>2065476265.952411</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09589507666797918</v>
+        <v>0.1008831975681101</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04246936932760156</v>
+        <v>0.03739728238349169</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1305347322.147658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2760462086.650697</v>
+        <v>4016168558.783554</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1364725509317377</v>
+        <v>0.1389063520869677</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03646934754721125</v>
+        <v>0.05458782212156933</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1380231119.199571</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1063124444.202222</v>
+        <v>1017794003.534674</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1601775494379667</v>
+        <v>0.1179885198088898</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0460932864840132</v>
+        <v>0.04443770981457963</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>531562281.6590831</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3585875987.616733</v>
+        <v>2785581787.71308</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1221178790502961</v>
+        <v>0.1450405250815732</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02462746473112557</v>
+        <v>0.03628513512345147</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>80</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1792937989.630132</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>969581845.4280435</v>
+        <v>927468431.6079313</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1194141045122634</v>
+        <v>0.1040679884593343</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02273582783991309</v>
+        <v>0.02458402237353249</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>484790993.6978346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>973700528.9840069</v>
+        <v>1381642730.896181</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1137378582263929</v>
+        <v>0.1166346720411783</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03788254314910949</v>
+        <v>0.03194561507042526</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>486850230.1205599</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3465401757.020885</v>
+        <v>4634148900.626367</v>
       </c>
       <c r="F27" t="n">
-        <v>0.116777221169921</v>
+        <v>0.1177104149547833</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02639808485531824</v>
+        <v>0.02102395870132081</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1732700915.212774</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3652805599.21123</v>
+        <v>2402150357.425507</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09394275530717595</v>
+        <v>0.09169680584760889</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04128219994121363</v>
+        <v>0.03075075806236037</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1826402867.477968</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4219376413.935243</v>
+        <v>4150809903.65541</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1294185442187155</v>
+        <v>0.1214845421743099</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03368132323886157</v>
+        <v>0.03421392854252454</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>120</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2109688208.583757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1676000190.184622</v>
+        <v>2294219539.934431</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1134021121263307</v>
+        <v>0.09586483587349492</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03490645750491501</v>
+        <v>0.02778158875904789</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>838000095.6481367</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1008342998.041555</v>
+        <v>1175235728.1273</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07081503767948989</v>
+        <v>0.08488159559756958</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03652091209800492</v>
+        <v>0.03565508105534968</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>504171495.5985253</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1832542792.457691</v>
+        <v>1756838426.255941</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0961831837718758</v>
+        <v>0.0890956902393866</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03247561265287908</v>
+        <v>0.02473582128715612</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>916271533.4481202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3015282909.60191</v>
+        <v>1978057153.516456</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1651861252959766</v>
+        <v>0.1573208010780095</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03690955199008854</v>
+        <v>0.04434624240497675</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>83</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1507641449.149034</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>988192792.0636721</v>
+        <v>1023894663.39616</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09851623799831301</v>
+        <v>0.08798415454755126</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02318761308561362</v>
+        <v>0.02539329488778608</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>494096435.8000798</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1115422540.255218</v>
+        <v>1180190755.84997</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08939122170949979</v>
+        <v>0.1142521546851537</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02983185157409799</v>
+        <v>0.04001601011173492</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>557711263.4087059</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2481018092.056145</v>
+        <v>2528267144.038727</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1300480560675857</v>
+        <v>0.1473540713764525</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02588620820573583</v>
+        <v>0.02745547461591426</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>67</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1240509069.52319</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2714081113.776</v>
+        <v>2519228183.45074</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1056528079332773</v>
+        <v>0.0946027604939028</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0374217044536312</v>
+        <v>0.02942198230331148</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>72</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1357040682.400277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1334528994.570554</v>
+        <v>1597181162.762368</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1097409026381168</v>
+        <v>0.08050165231655873</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03037354925833465</v>
+        <v>0.03711753982170701</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>667264569.9117678</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1867307303.853623</v>
+        <v>1840341972.172673</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1812196923784267</v>
+        <v>0.182735546182029</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02199738518597484</v>
+        <v>0.02646534937169179</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>933653666.5962732</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1409916294.738747</v>
+        <v>1428960041.739292</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1038098234552338</v>
+        <v>0.134928425621643</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04116364444810292</v>
+        <v>0.04117062411646855</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>704958136.1208583</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2249789028.60111</v>
+        <v>2603632852.126418</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1579539512355133</v>
+        <v>0.1441554956206746</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04527961418787806</v>
+        <v>0.02870052668849817</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>67</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1124894564.069805</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2713294670.269049</v>
+        <v>3513637515.221283</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1244344277672243</v>
+        <v>0.1219470443015822</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03773445734240732</v>
+        <v>0.03907435899732377</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1356647275.838823</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2429071467.801897</v>
+        <v>2962737572.782866</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1685933955444374</v>
+        <v>0.142416584148681</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01860681229912861</v>
+        <v>0.02077841332276539</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>98</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1214535789.691615</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1506668724.471116</v>
+        <v>1682160961.19708</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09753211828573358</v>
+        <v>0.08459982559681395</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02805510086460413</v>
+        <v>0.03197263191287101</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>753334370.1329275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2308384283.698479</v>
+        <v>2159854526.716802</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1617869047003682</v>
+        <v>0.1687639447675839</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03630528619086858</v>
+        <v>0.0366415608514807</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1154192163.778826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4329958908.53378</v>
+        <v>5167038700.904148</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1358480236281414</v>
+        <v>0.1573989284969137</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04604500739713065</v>
+        <v>0.05882133198001618</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>97</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2164979442.723565</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5124252415.047762</v>
+        <v>3597536018.671056</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1621665583390728</v>
+        <v>0.1705037357448201</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03982374665745987</v>
+        <v>0.05138767091349124</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>73</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2562126270.358974</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3802394216.695704</v>
+        <v>3222302968.659457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1063842913667961</v>
+        <v>0.06661588498397776</v>
       </c>
       <c r="G48" t="n">
-        <v>0.036320716117299</v>
+        <v>0.03645758161058968</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1901197154.17936</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1419132565.389552</v>
+        <v>1804169155.066856</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1670102893682135</v>
+        <v>0.1656821846405548</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02832820314705765</v>
+        <v>0.04379590395426766</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>709566327.2898475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3165056095.247316</v>
+        <v>2563206976.282805</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1759947002993063</v>
+        <v>0.1470306758102839</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05335839136621966</v>
+        <v>0.03686311893352835</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>93</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1582528095.696204</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>929471742.9798732</v>
+        <v>1321457922.011093</v>
       </c>
       <c r="F51" t="n">
-        <v>0.136939360095954</v>
+        <v>0.1897876557622912</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03675748530675298</v>
+        <v>0.04121547584477795</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>464735966.8722641</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3270833699.141697</v>
+        <v>3751833316.796493</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08680458884221397</v>
+        <v>0.1365941172928111</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0487522271561352</v>
+        <v>0.05967738160854039</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>112</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1635416948.965954</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3147395475.342688</v>
+        <v>2637331384.539628</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1874776166780904</v>
+        <v>0.1741330757364284</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02680557549782665</v>
+        <v>0.02251202098201437</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>78</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1573697759.945348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4672366972.179467</v>
+        <v>3568173566.643085</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1306215692734823</v>
+        <v>0.1494314865901775</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03191252976553616</v>
+        <v>0.03578051484411291</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2336183602.957122</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3875069780.584401</v>
+        <v>4310890259.504109</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1608821766719949</v>
+        <v>0.160176089698167</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02087420568432045</v>
+        <v>0.02763584391391327</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1937534859.710043</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1818066796.203719</v>
+        <v>1177568245.910899</v>
       </c>
       <c r="F56" t="n">
-        <v>0.135596388591917</v>
+        <v>0.1378528538456972</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05014832224996572</v>
+        <v>0.03645433720852029</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>909033393.2234218</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3544052404.30349</v>
+        <v>4469369887.250265</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1237671718033301</v>
+        <v>0.1240106732997528</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02758135594405871</v>
+        <v>0.01739097813196672</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>87</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1772026252.234815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1751089761.952783</v>
+        <v>1332123006.728895</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1821369512686678</v>
+        <v>0.1574192854126831</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0251512149385821</v>
+        <v>0.03300353241096707</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>875544889.2077248</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3659147591.645333</v>
+        <v>3818867500.755105</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1022014542269963</v>
+        <v>0.1130433097939737</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03012656861943884</v>
+        <v>0.04796391367124414</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>77</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1829573788.192561</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2963772681.710043</v>
+        <v>2973105919.459626</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1304938297366212</v>
+        <v>0.1837847838955353</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02961780108713039</v>
+        <v>0.0222530455042447</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>84</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1481886407.39806</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2641639765.761683</v>
+        <v>2045429793.243758</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1542666472696016</v>
+        <v>0.1487628083352101</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02562858382788007</v>
+        <v>0.02505942094712913</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>94</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1320819897.142014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1771908750.903304</v>
+        <v>1787810468.575246</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1901245004812913</v>
+        <v>0.1283579929449423</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03628277854510926</v>
+        <v>0.03276723988836406</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>885954399.2975154</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3604103500.290781</v>
+        <v>4738554916.092838</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0764715939583096</v>
+        <v>0.09926520577996628</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04380015791729219</v>
+        <v>0.04233546594652546</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1802051830.179115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4607410403.061428</v>
+        <v>3986120795.516399</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1544551965432397</v>
+        <v>0.1456329460761358</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02374367960915661</v>
+        <v>0.02498005428812099</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>85</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2303705280.113891</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5579076191.665391</v>
+        <v>3692227637.393098</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1532797170818294</v>
+        <v>0.1397864968327396</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02092616491309718</v>
+        <v>0.02272234057964445</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>97</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2789538020.171758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5594422636.838265</v>
+        <v>4148268009.781128</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1567821784605975</v>
+        <v>0.1125416069229603</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03862379125386051</v>
+        <v>0.04856129213234708</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>79</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2797211377.425645</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2577302808.918254</v>
+        <v>2385522234.241864</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09324660225791735</v>
+        <v>0.07969442353377515</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03304469266175038</v>
+        <v>0.04690341687296406</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>87</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1288651458.510039</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4341400517.638543</v>
+        <v>5582174825.466036</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1227250283317935</v>
+        <v>0.123620787398206</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03856039740093546</v>
+        <v>0.03955277497217061</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2170700275.301359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1704481034.558921</v>
+        <v>1602572283.472288</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1303659327945119</v>
+        <v>0.1189642446621227</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05823256436000882</v>
+        <v>0.04071531170575373</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>852240483.9995326</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3029114097.287544</v>
+        <v>2788330013.718886</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07961146215937728</v>
+        <v>0.09680115169961735</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03152053296665931</v>
+        <v>0.0418010018950553</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>78</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1514557027.503674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4337695734.384399</v>
+        <v>4222151033.936197</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1499595424483694</v>
+        <v>0.1389686125630808</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0311530204072626</v>
+        <v>0.02800508711604605</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>100</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2168847923.434731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2066079650.982631</v>
+        <v>2141850285.987078</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08604323526994308</v>
+        <v>0.0798172424759601</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0360398610813138</v>
+        <v>0.0333894473741447</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1033039761.17279</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2182384058.779573</v>
+        <v>3340571358.756073</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0708956204444091</v>
+        <v>0.08856941614230646</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03705975883728818</v>
+        <v>0.04503745323571427</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>103</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1091192100.2378</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3061367721.481661</v>
+        <v>3051984172.383518</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1818048766397001</v>
+        <v>0.1807861043227154</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02913701708100781</v>
+        <v>0.0283793889688769</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>93</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1530683920.827516</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1792377307.842227</v>
+        <v>1884825937.611909</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1133695768772702</v>
+        <v>0.1282302056195466</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02983657601073953</v>
+        <v>0.02534791834236751</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>896188637.6277652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4104928168.507911</v>
+        <v>4824596898.680495</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1022141647763114</v>
+        <v>0.09509499251620192</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02962881374861581</v>
+        <v>0.02163026640102483</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2052464073.383353</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1787002954.237789</v>
+        <v>1769908596.630015</v>
       </c>
       <c r="F77" t="n">
-        <v>0.182059889579006</v>
+        <v>0.1695718206834866</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03044220571789666</v>
+        <v>0.02573531907473814</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>893501507.2164565</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3907507877.683432</v>
+        <v>3655308965.543273</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08313108290388159</v>
+        <v>0.1084331794929775</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03972393121552633</v>
+        <v>0.04114192003269716</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>94</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1953753911.203022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1227707125.060735</v>
+        <v>1808929004.841284</v>
       </c>
       <c r="F79" t="n">
-        <v>0.151702751438568</v>
+        <v>0.1091394280896276</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02898796899742139</v>
+        <v>0.02874751507201711</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>613853549.1281995</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4849453716.352257</v>
+        <v>5563359870.941308</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06824065437595278</v>
+        <v>0.09928579879319364</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02392095642208506</v>
+        <v>0.02721269778346236</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>57</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2424726899.883661</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4935256795.785285</v>
+        <v>4754144726.68039</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1158486332815521</v>
+        <v>0.129872842835612</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02384666460255963</v>
+        <v>0.03037734332400636</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2467628395.830813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4168741004.781348</v>
+        <v>3428041848.66172</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1326599976953762</v>
+        <v>0.2024964246128611</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02308144088549631</v>
+        <v>0.01922264081683335</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>96</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2084370532.735145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1879326271.449516</v>
+        <v>1852451733.317138</v>
       </c>
       <c r="F83" t="n">
-        <v>0.114230046663261</v>
+        <v>0.1039861813533899</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02819357218250385</v>
+        <v>0.03884602814955408</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>939663106.014196</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2318314376.101998</v>
+        <v>2388583433.029459</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09107231271138432</v>
+        <v>0.07291305288889653</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03277077993077596</v>
+        <v>0.03940356424010284</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1159157146.426448</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2966401039.781051</v>
+        <v>2893362254.445178</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1489678430587865</v>
+        <v>0.1569448354455263</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04989551734359646</v>
+        <v>0.03453063374737048</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>103</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1483200576.31425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2022174660.035983</v>
+        <v>2139819172.741919</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1703587171665635</v>
+        <v>0.1460343748644201</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01724428096325506</v>
+        <v>0.01987293357542824</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1011087360.733676</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1392512481.957079</v>
+        <v>1272849549.113887</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1715841019975282</v>
+        <v>0.1324282975112064</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03673658510104322</v>
+        <v>0.02815103035008748</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>696256345.9121006</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2581440096.806478</v>
+        <v>2836629086.489484</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1450831609855804</v>
+        <v>0.1231391453877081</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02525363246290635</v>
+        <v>0.03540069872171286</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>107</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1290720037.474103</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2562460183.776195</v>
+        <v>2895748775.329685</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1438941833463118</v>
+        <v>0.1495397597012526</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03684869501989761</v>
+        <v>0.0354089659124678</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>92</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1281230162.056685</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1918469084.843718</v>
+        <v>1739369363.533769</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1173612171618829</v>
+        <v>0.1005018762136651</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03500970761020926</v>
+        <v>0.04838170910571402</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>959234597.7745184</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1461726635.038593</v>
+        <v>2106556064.914163</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1621142420067034</v>
+        <v>0.1598635475039186</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03939395818944369</v>
+        <v>0.0382167110792079</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>730863361.5219295</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2740173307.307428</v>
+        <v>2402115275.756964</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0918322472654904</v>
+        <v>0.08929129229005046</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04202027067793156</v>
+        <v>0.03868498450758221</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>67</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1370086655.726606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3576909493.328742</v>
+        <v>3516607037.835751</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1236400977822747</v>
+        <v>0.1363645141052585</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04843386124889884</v>
+        <v>0.0476823876111732</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1788454774.618245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2202512861.082703</v>
+        <v>2416742446.007357</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1341176364535649</v>
+        <v>0.1211285040674491</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03785301219395009</v>
+        <v>0.03439156621781348</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1101256455.222362</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2943953794.016471</v>
+        <v>2277252789.250638</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1111384049687002</v>
+        <v>0.1283511334121253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05304596429203273</v>
+        <v>0.04903369534054044</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>65</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1471976900.838719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2386145040.341293</v>
+        <v>2189302254.664055</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1348113497106827</v>
+        <v>0.1373619612064391</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02907445792834434</v>
+        <v>0.0448083882205338</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1193072465.91561</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4382845377.437758</v>
+        <v>5158464038.620694</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1427490537627162</v>
+        <v>0.1440416634922143</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01854827586917142</v>
+        <v>0.01812322734855426</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>88</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2191422775.89217</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3512696350.935075</v>
+        <v>2551797410.392682</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08144235975908586</v>
+        <v>0.1139828891294166</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02056499572365587</v>
+        <v>0.02351529071144177</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1756348194.915417</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2194527745.194815</v>
+        <v>2228788384.002772</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09496427420853981</v>
+        <v>0.1391506542963017</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03139835916594983</v>
+        <v>0.03310610065327913</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>86</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1097263800.172625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3736284049.85548</v>
+        <v>3651027831.022721</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1676516331645031</v>
+        <v>0.1624563874506176</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02620949180229531</v>
+        <v>0.01744943979000904</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1868142074.554763</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2275502952.253266</v>
+        <v>2561094921.290296</v>
       </c>
       <c r="F101" t="n">
-        <v>0.141765231951183</v>
+        <v>0.1901500065112458</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03731815248157773</v>
+        <v>0.05180456768166321</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>108</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1137751469.441605</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_272.xlsx
+++ b/output/fit_clients/fit_round_272.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2018440787.006046</v>
+        <v>2398015372.883676</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09830391237860014</v>
+        <v>0.07344352782218243</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04270159945325242</v>
+        <v>0.03483754091116307</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2554327740.445968</v>
+        <v>2057403855.483155</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1703845286412091</v>
+        <v>0.1267103036499334</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0388867891664189</v>
+        <v>0.04044261766134369</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3292197254.318267</v>
+        <v>3676795502.862212</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1337539665828575</v>
+        <v>0.1479598758645159</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02937950620728011</v>
+        <v>0.03081205564923955</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3318754044.4642</v>
+        <v>4015886669.138713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1056812022823387</v>
+        <v>0.0848129431335599</v>
       </c>
       <c r="G5" t="n">
-        <v>0.046316426067027</v>
+        <v>0.04097021291825285</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2199030635.652553</v>
+        <v>1770688549.651961</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1117250685633063</v>
+        <v>0.1182535557499325</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05466787407420877</v>
+        <v>0.03484358058230712</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2081554419.449589</v>
+        <v>3100574962.305214</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09734770403660123</v>
+        <v>0.09223211628545713</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03808731824163874</v>
+        <v>0.03667956472286452</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2689733339.953502</v>
+        <v>3172733365.121328</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1417814634974462</v>
+        <v>0.2204399647345394</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02528912115278133</v>
+        <v>0.02950089581334557</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2020161401.078897</v>
+        <v>2160588932.231139</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1448493033754456</v>
+        <v>0.150146393743128</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02352635615661233</v>
+        <v>0.02390134509372808</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5623107758.387105</v>
+        <v>5054830669.568172</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1889832980346983</v>
+        <v>0.2107668074753766</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04616936904947948</v>
+        <v>0.04470212533941902</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2736930591.957219</v>
+        <v>3557466096.815372</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1212257894110205</v>
+        <v>0.1458672486330348</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04067982668501456</v>
+        <v>0.03524705841086174</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2398983642.360093</v>
+        <v>3009526254.943628</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1712304094687003</v>
+        <v>0.1610822398240116</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04139511156804658</v>
+        <v>0.04884308790667286</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4256100314.687097</v>
+        <v>5224395025.908216</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09776190439782054</v>
+        <v>0.07179489360401907</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01911427578134459</v>
+        <v>0.03084711961036737</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2443635174.364749</v>
+        <v>2585109264.313493</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1819716592035839</v>
+        <v>0.1606380751954426</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03623932777325751</v>
+        <v>0.02769646992710097</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1438232392.852113</v>
+        <v>1318191542.95738</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1059572632438921</v>
+        <v>0.06667821143819545</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0426450632907699</v>
+        <v>0.0381364188114315</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2771809346.412878</v>
+        <v>2392774493.33358</v>
       </c>
       <c r="F16" t="n">
-        <v>0.110119958692957</v>
+        <v>0.07702987394051156</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03544540322728169</v>
+        <v>0.05188873716855383</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5176984505.894594</v>
+        <v>4897551651.297516</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1187418926363554</v>
+        <v>0.1680542425401684</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0448529700415125</v>
+        <v>0.04470801819287572</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3736663959.989009</v>
+        <v>2926577512.934236</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1124569451163448</v>
+        <v>0.1688548873920337</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02763343734891671</v>
+        <v>0.0232133846187421</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1237138430.837322</v>
+        <v>1076329010.831344</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1841120838004881</v>
+        <v>0.1747543051103609</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02662326848392434</v>
+        <v>0.01974115719266123</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2124275411.232185</v>
+        <v>2410598674.022003</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1174517006627949</v>
+        <v>0.1431540452099475</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0261153901489842</v>
+        <v>0.02722523924162181</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2065476265.952411</v>
+        <v>1780341345.488215</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1008831975681101</v>
+        <v>0.0710576134189066</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03739728238349169</v>
+        <v>0.041824400801995</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4016168558.783554</v>
+        <v>2805440533.429317</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1389063520869677</v>
+        <v>0.09565402098303372</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05458782212156933</v>
+        <v>0.03660917408696736</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1017794003.534674</v>
+        <v>1065346035.83453</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1179885198088898</v>
+        <v>0.1323757877705174</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04443770981457963</v>
+        <v>0.04770054682600836</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2785581787.71308</v>
+        <v>3271359279.294618</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1450405250815732</v>
+        <v>0.1443418025792573</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03628513512345147</v>
+        <v>0.02629985505720396</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>927468431.6079313</v>
+        <v>1089739243.552364</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1040679884593343</v>
+        <v>0.1118248503377731</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02458402237353249</v>
+        <v>0.02392236538737336</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1381642730.896181</v>
+        <v>1438893122.775613</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1166346720411783</v>
+        <v>0.1206454102750813</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03194561507042526</v>
+        <v>0.03047349049147966</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4634148900.626367</v>
+        <v>4363501650.786861</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1177104149547833</v>
+        <v>0.1385383640396669</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02102395870132081</v>
+        <v>0.02517929374890848</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2402150357.425507</v>
+        <v>2576736304.463658</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09169680584760889</v>
+        <v>0.1345715913328862</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03075075806236037</v>
+        <v>0.04557902312107127</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4150809903.65541</v>
+        <v>5937407319.996061</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1214845421743099</v>
+        <v>0.1279028126574279</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03421392854252454</v>
+        <v>0.0429347106941546</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2294219539.934431</v>
+        <v>2026559386.903795</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09586483587349492</v>
+        <v>0.08577988695332475</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02778158875904789</v>
+        <v>0.04001973015440823</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1175235728.1273</v>
+        <v>1155033927.901089</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08488159559756958</v>
+        <v>0.1036560136455475</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03565508105534968</v>
+        <v>0.04832860164240485</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1756838426.255941</v>
+        <v>1744704822.320315</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0890956902393866</v>
+        <v>0.09264274977231901</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02473582128715612</v>
+        <v>0.03278706752441619</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1978057153.516456</v>
+        <v>2455319948.692525</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1573208010780095</v>
+        <v>0.1541972309624439</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04434624240497675</v>
+        <v>0.05480052247921002</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1023894663.39616</v>
+        <v>1269665291.312032</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08798415454755126</v>
+        <v>0.08089978895619006</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02539329488778608</v>
+        <v>0.02648868678140329</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1180190755.84997</v>
+        <v>1219707686.407178</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1142521546851537</v>
+        <v>0.1099809698504182</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04001601011173492</v>
+        <v>0.02736832984892247</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2528267144.038727</v>
+        <v>2830159700.051428</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1473540713764525</v>
+        <v>0.1721776656374313</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02745547461591426</v>
+        <v>0.02831578597367152</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2519228183.45074</v>
+        <v>2569492411.198952</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0946027604939028</v>
+        <v>0.1053584385259549</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02942198230331148</v>
+        <v>0.03612508642461669</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1597181162.762368</v>
+        <v>2160208141.602177</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08050165231655873</v>
+        <v>0.09400632532288938</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03711753982170701</v>
+        <v>0.03396181149581133</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1840341972.172673</v>
+        <v>2020371062.544285</v>
       </c>
       <c r="F39" t="n">
-        <v>0.182735546182029</v>
+        <v>0.194402921905705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02646534937169179</v>
+        <v>0.02691282392886861</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1428960041.739292</v>
+        <v>1504615182.433677</v>
       </c>
       <c r="F40" t="n">
-        <v>0.134928425621643</v>
+        <v>0.1136687990762779</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04117062411646855</v>
+        <v>0.05926054824560388</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2603632852.126418</v>
+        <v>2193203682.262691</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1441554956206746</v>
+        <v>0.1602182174990569</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02870052668849817</v>
+        <v>0.03443335126499352</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3513637515.221283</v>
+        <v>3784757763.436575</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1219470443015822</v>
+        <v>0.1197001315869911</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03907435899732377</v>
+        <v>0.03184639254082212</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2962737572.782866</v>
+        <v>2573196709.440408</v>
       </c>
       <c r="F43" t="n">
-        <v>0.142416584148681</v>
+        <v>0.1432518893884359</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02077841332276539</v>
+        <v>0.02093678599661944</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1682160961.19708</v>
+        <v>2045120854.553746</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08459982559681395</v>
+        <v>0.06556226328620833</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03197263191287101</v>
+        <v>0.03017684625671264</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2159854526.716802</v>
+        <v>2272219005.173622</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1687639447675839</v>
+        <v>0.1412124649525418</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0366415608514807</v>
+        <v>0.03665585179238032</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5167038700.904148</v>
+        <v>4559706502.598751</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1573989284969137</v>
+        <v>0.1622262464376125</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05882133198001618</v>
+        <v>0.0523711503968713</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3597536018.671056</v>
+        <v>5066781661.21563</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1705037357448201</v>
+        <v>0.1596319457569734</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05138767091349124</v>
+        <v>0.03746994099472258</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3222302968.659457</v>
+        <v>4238579732.53311</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06661588498397776</v>
+        <v>0.1058205157706522</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03645758161058968</v>
+        <v>0.03210383150193418</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1804169155.066856</v>
+        <v>1353200574.753173</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1656821846405548</v>
+        <v>0.1677436507346627</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04379590395426766</v>
+        <v>0.04251420779135092</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2563206976.282805</v>
+        <v>3308553630.318415</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1470306758102839</v>
+        <v>0.1191854618172441</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03686311893352835</v>
+        <v>0.04892061593501117</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1321457922.011093</v>
+        <v>1217499930.944925</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1897876557622912</v>
+        <v>0.1277780712744773</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04121547584477795</v>
+        <v>0.05151073896042601</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3751833316.796493</v>
+        <v>4023183550.157605</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1365941172928111</v>
+        <v>0.1242802353752898</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05967738160854039</v>
+        <v>0.05609955452229064</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2637331384.539628</v>
+        <v>2336652636.931139</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1741330757364284</v>
+        <v>0.144680024933216</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02251202098201437</v>
+        <v>0.02932522097802886</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3568173566.643085</v>
+        <v>3055025180.925399</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1494314865901775</v>
+        <v>0.1264839907419843</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03578051484411291</v>
+        <v>0.04186702261025292</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4310890259.504109</v>
+        <v>3916339287.417303</v>
       </c>
       <c r="F55" t="n">
-        <v>0.160176089698167</v>
+        <v>0.1503546582332043</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02763584391391327</v>
+        <v>0.02792212997594467</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1177568245.910899</v>
+        <v>1844223480.809984</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1378528538456972</v>
+        <v>0.127470362072676</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03645433720852029</v>
+        <v>0.0420934861071304</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4469369887.250265</v>
+        <v>4445209789.951233</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1240106732997528</v>
+        <v>0.1520264221552527</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01739097813196672</v>
+        <v>0.02123020871616559</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1332123006.728895</v>
+        <v>1882562506.72517</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1574192854126831</v>
+        <v>0.1577207619233501</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03300353241096707</v>
+        <v>0.03296042453058423</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3818867500.755105</v>
+        <v>4760864690.791127</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1130433097939737</v>
+        <v>0.112829333989631</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04796391367124414</v>
+        <v>0.04748610945832722</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2973105919.459626</v>
+        <v>3181134893.83113</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1837847838955353</v>
+        <v>0.1721698208730967</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0222530455042447</v>
+        <v>0.02268326960191099</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2045429793.243758</v>
+        <v>2872018702.891729</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1487628083352101</v>
+        <v>0.1142754682153465</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02505942094712913</v>
+        <v>0.0255788694893068</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1787810468.575246</v>
+        <v>2107372737.359589</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1283579929449423</v>
+        <v>0.1890434986203434</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03276723988836406</v>
+        <v>0.03415586124093637</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4738554916.092838</v>
+        <v>5023434692.858677</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09926520577996628</v>
+        <v>0.0948111577647715</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04233546594652546</v>
+        <v>0.03113026981159119</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3986120795.516399</v>
+        <v>3982422635.471879</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1456329460761358</v>
+        <v>0.1571560063599676</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02498005428812099</v>
+        <v>0.02955544641315419</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3692227637.393098</v>
+        <v>4287010736.796267</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1397864968327396</v>
+        <v>0.1257253218624634</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02272234057964445</v>
+        <v>0.03078032071801845</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4148268009.781128</v>
+        <v>3953762706.877879</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1125416069229603</v>
+        <v>0.1056237578607322</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04856129213234708</v>
+        <v>0.03490313440335038</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2385522234.241864</v>
+        <v>2234129000.356771</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07969442353377515</v>
+        <v>0.09780451982427675</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04690341687296406</v>
+        <v>0.0326124984735039</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5582174825.466036</v>
+        <v>4451558750.067066</v>
       </c>
       <c r="F68" t="n">
-        <v>0.123620787398206</v>
+        <v>0.132171778219836</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03955277497217061</v>
+        <v>0.04953285676900384</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1602572283.472288</v>
+        <v>2094583402.834749</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1189642446621227</v>
+        <v>0.1795529586996647</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04071531170575373</v>
+        <v>0.04603052503643312</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2788330013.718886</v>
+        <v>2820739831.845284</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09680115169961735</v>
+        <v>0.07043541104221555</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0418010018950553</v>
+        <v>0.04808949425650114</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4222151033.936197</v>
+        <v>5068836403.258636</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1389686125630808</v>
+        <v>0.1522302908893208</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02800508711604605</v>
+        <v>0.02146921205521664</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2141850285.987078</v>
+        <v>1545091141.974648</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0798172424759601</v>
+        <v>0.0778857691418063</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0333894473741447</v>
+        <v>0.03479932652595168</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3340571358.756073</v>
+        <v>2690440476.881349</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08856941614230646</v>
+        <v>0.09893940478119759</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04503745323571427</v>
+        <v>0.04990430111592958</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3051984172.383518</v>
+        <v>3749865759.139795</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1807861043227154</v>
+        <v>0.1607568619867453</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0283793889688769</v>
+        <v>0.02638414646117977</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1884825937.611909</v>
+        <v>1981694796.942163</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1282302056195466</v>
+        <v>0.1412542755029581</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02534791834236751</v>
+        <v>0.03697951954927055</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4824596898.680495</v>
+        <v>4711019493.003716</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09509499251620192</v>
+        <v>0.1144112635859912</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02163026640102483</v>
+        <v>0.02780397844551015</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1769908596.630015</v>
+        <v>2260908092.618623</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1695718206834866</v>
+        <v>0.1525180413168027</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02573531907473814</v>
+        <v>0.02622819911703158</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3655308965.543273</v>
+        <v>4775961221.827338</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1084331794929775</v>
+        <v>0.1144659774731978</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04114192003269716</v>
+        <v>0.04517406621907513</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1808929004.841284</v>
+        <v>1589234155.919926</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1091394280896276</v>
+        <v>0.155785498798052</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02874751507201711</v>
+        <v>0.03754422446777372</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5563359870.941308</v>
+        <v>4887476409.656677</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09928579879319364</v>
+        <v>0.0871701245154226</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02721269778346236</v>
+        <v>0.03703787174778658</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4754144726.68039</v>
+        <v>4326698526.937857</v>
       </c>
       <c r="F81" t="n">
-        <v>0.129872842835612</v>
+        <v>0.09580914793619009</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03037734332400636</v>
+        <v>0.03226776582792384</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3428041848.66172</v>
+        <v>4845412758.565579</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2024964246128611</v>
+        <v>0.1921349434535302</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01922264081683335</v>
+        <v>0.02102690113767033</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1852451733.317138</v>
+        <v>1984091241.85261</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1039861813533899</v>
+        <v>0.1324521057052711</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03884602814955408</v>
+        <v>0.03000965724516387</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2388583433.029459</v>
+        <v>2436843312.896239</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07291305288889653</v>
+        <v>0.08493596546000412</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03940356424010284</v>
+        <v>0.03982691429154823</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2893362254.445178</v>
+        <v>3043149344.630847</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1569448354455263</v>
+        <v>0.1586779703632135</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03453063374737048</v>
+        <v>0.04171664740327392</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2139819172.741919</v>
+        <v>1854649465.635425</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1460343748644201</v>
+        <v>0.13162808720993</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01987293357542824</v>
+        <v>0.01792285964971272</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1272849549.113887</v>
+        <v>1417766031.724266</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1324282975112064</v>
+        <v>0.1222564031555739</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02815103035008748</v>
+        <v>0.02860990079237634</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2836629086.489484</v>
+        <v>2526861600.24261</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1231391453877081</v>
+        <v>0.1085068673223438</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03540069872171286</v>
+        <v>0.02544876798158976</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2895748775.329685</v>
+        <v>3231934912.801881</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1495397597012526</v>
+        <v>0.1273210780206579</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0354089659124678</v>
+        <v>0.02815100340376318</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1739369363.533769</v>
+        <v>1741952481.107876</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1005018762136651</v>
+        <v>0.1279504132547367</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04838170910571402</v>
+        <v>0.04452599126794109</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2106556064.914163</v>
+        <v>1491617033.904802</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1598635475039186</v>
+        <v>0.1622342346637548</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0382167110792079</v>
+        <v>0.04207267042158214</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2402115275.756964</v>
+        <v>2648123076.316702</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08929129229005046</v>
+        <v>0.1080748201287246</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03868498450758221</v>
+        <v>0.03679198807096631</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3516607037.835751</v>
+        <v>4626238354.443489</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1363645141052585</v>
+        <v>0.1183456070433172</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0476823876111732</v>
+        <v>0.04578371567899532</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2416742446.007357</v>
+        <v>2039828346.630666</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1211285040674491</v>
+        <v>0.1018069012017131</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03439156621781348</v>
+        <v>0.0285273500185204</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2277252789.250638</v>
+        <v>3277061565.630094</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1283511334121253</v>
+        <v>0.08681146911449757</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04903369534054044</v>
+        <v>0.04156677575686098</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2189302254.664055</v>
+        <v>2209211472.096357</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1373619612064391</v>
+        <v>0.1316534123884094</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0448083882205338</v>
+        <v>0.03598621844640415</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5158464038.620694</v>
+        <v>3714058674.293847</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1440416634922143</v>
+        <v>0.1103115435594164</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01812322734855426</v>
+        <v>0.01790688940329848</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2551797410.392682</v>
+        <v>3027561600.909665</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1139828891294166</v>
+        <v>0.106425470138685</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02351529071144177</v>
+        <v>0.02138142968259847</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2228788384.002772</v>
+        <v>2520571283.949544</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1391506542963017</v>
+        <v>0.1410379120051219</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03310610065327913</v>
+        <v>0.02143473726249295</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3651027831.022721</v>
+        <v>3873616800.709845</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1624563874506176</v>
+        <v>0.1470608927393822</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01744943979000904</v>
+        <v>0.02150921904661877</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2561094921.290296</v>
+        <v>2586179105.866417</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1901500065112458</v>
+        <v>0.1591979539935459</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05180456768166321</v>
+        <v>0.04406273608854024</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_272.xlsx
+++ b/output/fit_clients/fit_round_272.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2398015372.883676</v>
+        <v>1750177649.048553</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07344352782218243</v>
+        <v>0.08731314676832577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03483754091116307</v>
+        <v>0.03520868934309875</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2057403855.483155</v>
+        <v>1923705747.799878</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1267103036499334</v>
+        <v>0.1213977786204337</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04044261766134369</v>
+        <v>0.03976030016376555</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3676795502.862212</v>
+        <v>3330849472.526131</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1479598758645159</v>
+        <v>0.1293146870458199</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03081205564923955</v>
+        <v>0.02332283152701463</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>145</v>
+      </c>
+      <c r="J4" t="n">
+        <v>272</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4015886669.138713</v>
+        <v>3405233818.549335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0848129431335599</v>
+        <v>0.1050029810929974</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04097021291825285</v>
+        <v>0.03082436946424527</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>272</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1770688549.651961</v>
+        <v>2678574079.919457</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1182535557499325</v>
+        <v>0.148015009964991</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03484358058230712</v>
+        <v>0.04688539769295009</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3100574962.305214</v>
+        <v>3143136532.117388</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09223211628545713</v>
+        <v>0.08923944062613152</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03667956472286452</v>
+        <v>0.04854820973027429</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3172733365.121328</v>
+        <v>3293542041.938478</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2204399647345394</v>
+        <v>0.155676598592287</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02950089581334557</v>
+        <v>0.02805861561179045</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>71</v>
+      </c>
+      <c r="J8" t="n">
+        <v>272</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2160588932.231139</v>
+        <v>1861717052.236057</v>
       </c>
       <c r="F9" t="n">
-        <v>0.150146393743128</v>
+        <v>0.1393845151415861</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02390134509372808</v>
+        <v>0.03187371666365952</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5054830669.568172</v>
+        <v>5529278312.339939</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2107668074753766</v>
+        <v>0.1589043812001175</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04470212533941902</v>
+        <v>0.03932904664392579</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>245</v>
+      </c>
+      <c r="J10" t="n">
+        <v>271</v>
+      </c>
+      <c r="K10" t="n">
+        <v>94.6822411138954</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3557466096.815372</v>
+        <v>2675336180.290987</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1458672486330348</v>
+        <v>0.1844245953731811</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03524705841086174</v>
+        <v>0.03507221309938571</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>110</v>
+      </c>
+      <c r="J11" t="n">
+        <v>268</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3009526254.943628</v>
+        <v>2345515446.30934</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1610822398240116</v>
+        <v>0.1245573794810949</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04884308790667286</v>
+        <v>0.04492163871852881</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +888,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5224395025.908216</v>
+        <v>4700275875.629212</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07179489360401907</v>
+        <v>0.08407772057769064</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03084711961036737</v>
+        <v>0.02914777452543475</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>138</v>
+      </c>
+      <c r="J13" t="n">
+        <v>272</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2585109264.313493</v>
+        <v>3880195841.950017</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1606380751954426</v>
+        <v>0.1488510832333181</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02769646992710097</v>
+        <v>0.03895833669113064</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>55</v>
+      </c>
+      <c r="J14" t="n">
+        <v>272</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1318191542.95738</v>
+        <v>1591861799.212222</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06667821143819545</v>
+        <v>0.103251261316755</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0381364188114315</v>
+        <v>0.03867148195086396</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2392774493.33358</v>
+        <v>1744740683.024054</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07702987394051156</v>
+        <v>0.08838919633361499</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05188873716855383</v>
+        <v>0.04352790273230438</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4897551651.297516</v>
+        <v>4387531880.684411</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1680542425401684</v>
+        <v>0.1312450898505995</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04470801819287572</v>
+        <v>0.04677511331843339</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>130</v>
+      </c>
+      <c r="J17" t="n">
+        <v>271</v>
+      </c>
+      <c r="K17" t="n">
+        <v>88.52806189617193</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2926577512.934236</v>
+        <v>3500064672.970552</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1688548873920337</v>
+        <v>0.126204845688403</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0232133846187421</v>
+        <v>0.02176825405937844</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>68</v>
+      </c>
+      <c r="J18" t="n">
+        <v>272</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1076329010.831344</v>
+        <v>1009888441.401729</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1747543051103609</v>
+        <v>0.149888671110488</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01974115719266123</v>
+        <v>0.01881687477568832</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2410598674.022003</v>
+        <v>2386090965.347901</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1431540452099475</v>
+        <v>0.154582445406464</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02722523924162181</v>
+        <v>0.02970817320508513</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1780341345.488215</v>
+        <v>2302568518.63915</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0710576134189066</v>
+        <v>0.07147587020966514</v>
       </c>
       <c r="G21" t="n">
-        <v>0.041824400801995</v>
+        <v>0.03199116663078702</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2805440533.429317</v>
+        <v>2620788984.826552</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09565402098303372</v>
+        <v>0.1360191951018583</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03660917408696736</v>
+        <v>0.04601073262828586</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>71</v>
+      </c>
+      <c r="J22" t="n">
+        <v>270</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1065346035.83453</v>
+        <v>1175854595.646716</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1323757877705174</v>
+        <v>0.1164097019037041</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04770054682600836</v>
+        <v>0.04939014966748655</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3271359279.294618</v>
+        <v>3208014196.27583</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1443418025792573</v>
+        <v>0.09152891260389366</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02629985505720396</v>
+        <v>0.02762994434946099</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>81</v>
+      </c>
+      <c r="J24" t="n">
+        <v>266</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1089739243.552364</v>
+        <v>1178093687.997648</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1118248503377731</v>
+        <v>0.1194712234621283</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02392236538737336</v>
+        <v>0.02629210403043382</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1438893122.775613</v>
+        <v>975334496.0050243</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1206454102750813</v>
+        <v>0.1069852984373391</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03047349049147966</v>
+        <v>0.03107092410862722</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4363501650.786861</v>
+        <v>4719746622.904359</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1385383640396669</v>
+        <v>0.09808369277931756</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02517929374890848</v>
+        <v>0.02313905959248434</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>111</v>
+      </c>
+      <c r="J27" t="n">
+        <v>272</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1409,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2576736304.463658</v>
+        <v>2851754043.941778</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1345715913328862</v>
+        <v>0.103044707371077</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04557902312107127</v>
+        <v>0.04369321667199618</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>55</v>
+      </c>
+      <c r="J28" t="n">
+        <v>270</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1444,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5937407319.996061</v>
+        <v>4515761665.778744</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1279028126574279</v>
+        <v>0.0949023502178736</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0429347106941546</v>
+        <v>0.03688445882601365</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>260</v>
+      </c>
+      <c r="J29" t="n">
+        <v>272</v>
+      </c>
+      <c r="K29" t="n">
+        <v>95.23473353463903</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2026559386.903795</v>
+        <v>1708405810.219286</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08577988695332475</v>
+        <v>0.08644977547183434</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04001973015440823</v>
+        <v>0.03753107974794747</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1155033927.901089</v>
+        <v>1438244379.298145</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1036560136455475</v>
+        <v>0.08763942798422598</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04832860164240485</v>
+        <v>0.04230046111226488</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1744704822.320315</v>
+        <v>1899384250.861855</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09264274977231901</v>
+        <v>0.1209533627522697</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03278706752441619</v>
+        <v>0.0265866043484379</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2455319948.692525</v>
+        <v>2522813704.752496</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1541972309624439</v>
+        <v>0.1703533621702139</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05480052247921002</v>
+        <v>0.03702118283129804</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1269665291.312032</v>
+        <v>1296437967.343862</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08089978895619006</v>
+        <v>0.1120922824986338</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02648868678140329</v>
+        <v>0.02479691554118082</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1219707686.407178</v>
+        <v>912595685.812606</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1099809698504182</v>
+        <v>0.0737653672410072</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02736832984892247</v>
+        <v>0.03494995053424781</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2830159700.051428</v>
+        <v>2759680249.991566</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1721776656374313</v>
+        <v>0.1222430428576158</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02831578597367152</v>
+        <v>0.02230591420928565</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1732,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2569492411.198952</v>
+        <v>2551326107.422227</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1053584385259549</v>
+        <v>0.09250778160629977</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03612508642461669</v>
+        <v>0.03399817536195975</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2160208141.602177</v>
+        <v>1351145878.211555</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09400632532288938</v>
+        <v>0.08317208956011728</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03396181149581133</v>
+        <v>0.03979595345066125</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1802,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2020371062.544285</v>
+        <v>1456573576.273001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.194402921905705</v>
+        <v>0.1731941966751944</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02691282392886861</v>
+        <v>0.02095992955098696</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1504615182.433677</v>
+        <v>1824125634.921938</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1136687990762779</v>
+        <v>0.1059406470017181</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05926054824560388</v>
+        <v>0.05687804597823126</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1872,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2193203682.262691</v>
+        <v>2214680586.001544</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1602182174990569</v>
+        <v>0.1120124804476601</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03443335126499352</v>
+        <v>0.02932050207638519</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3784757763.436575</v>
+        <v>4007765758.939081</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1197001315869911</v>
+        <v>0.1231919096719345</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03184639254082212</v>
+        <v>0.04218050221145166</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>115</v>
+      </c>
+      <c r="J42" t="n">
+        <v>271</v>
+      </c>
+      <c r="K42" t="n">
+        <v>87.42774169477262</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2573196709.440408</v>
+        <v>2730709161.888479</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1432518893884359</v>
+        <v>0.1893658143841111</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02093678599661944</v>
+        <v>0.02131949951211158</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2045120854.553746</v>
+        <v>1766988059.788838</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06556226328620833</v>
+        <v>0.08708406068868725</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03017684625671264</v>
+        <v>0.02967057258777098</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2272219005.173622</v>
+        <v>2254548157.609281</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1412124649525418</v>
+        <v>0.165775289821483</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03665585179238032</v>
+        <v>0.0414286139509262</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2049,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4559706502.598751</v>
+        <v>4166448815.56713</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1622262464376125</v>
+        <v>0.1210229154971781</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0523711503968713</v>
+        <v>0.04675618663193821</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>159</v>
+      </c>
+      <c r="J46" t="n">
+        <v>272</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2078,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5066781661.21563</v>
+        <v>4536933183.175187</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1596319457569734</v>
+        <v>0.1923491710115672</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03746994099472258</v>
+        <v>0.05094492566009517</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>122</v>
+      </c>
+      <c r="J47" t="n">
+        <v>272</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2113,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4238579732.53311</v>
+        <v>4730898477.060347</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1058205157706522</v>
+        <v>0.07860087305646701</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03210383150193418</v>
+        <v>0.03161384315381346</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>135</v>
+      </c>
+      <c r="J48" t="n">
+        <v>272</v>
+      </c>
+      <c r="K48" t="n">
+        <v>101.57448986761</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1353200574.753173</v>
+        <v>1461688784.741946</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1677436507346627</v>
+        <v>0.1277635118039587</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04251420779135092</v>
+        <v>0.03616643127224541</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2185,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3308553630.318415</v>
+        <v>3279207209.033447</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1191854618172441</v>
+        <v>0.1528538674673592</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04892061593501117</v>
+        <v>0.03215923253423795</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>88</v>
+      </c>
+      <c r="J50" t="n">
+        <v>271</v>
+      </c>
+      <c r="K50" t="n">
+        <v>54.45982744614803</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1217499930.944925</v>
+        <v>1504563380.321742</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1277780712744773</v>
+        <v>0.1721313011769496</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05151073896042601</v>
+        <v>0.05336840626896341</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4023183550.157605</v>
+        <v>4508776765.858068</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1242802353752898</v>
+        <v>0.1136183290184877</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05609955452229064</v>
+        <v>0.04400183165261979</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>172</v>
+      </c>
+      <c r="J52" t="n">
+        <v>271</v>
+      </c>
+      <c r="K52" t="n">
+        <v>92.00458927833954</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2336652636.931139</v>
+        <v>2382941599.009044</v>
       </c>
       <c r="F53" t="n">
-        <v>0.144680024933216</v>
+        <v>0.1470199784371709</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02932522097802886</v>
+        <v>0.02187599155121568</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>38</v>
+      </c>
+      <c r="J53" t="n">
+        <v>270</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2335,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3055025180.925399</v>
+        <v>3240145473.24964</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1264839907419843</v>
+        <v>0.1220842182273873</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04186702261025292</v>
+        <v>0.03599369565072091</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>144</v>
+      </c>
+      <c r="J54" t="n">
+        <v>271</v>
+      </c>
+      <c r="K54" t="n">
+        <v>51.32530825868494</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3916339287.417303</v>
+        <v>3140324335.682872</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1503546582332043</v>
+        <v>0.1624413290414785</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02792212997594467</v>
+        <v>0.01984563300651355</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>122</v>
+      </c>
+      <c r="J55" t="n">
+        <v>270</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1844223480.809984</v>
+        <v>1340462088.862161</v>
       </c>
       <c r="F56" t="n">
-        <v>0.127470362072676</v>
+        <v>0.1473417848511397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0420934861071304</v>
+        <v>0.05066405920185002</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4445209789.951233</v>
+        <v>3594344785.746313</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1520264221552527</v>
+        <v>0.1693017578356502</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02123020871616559</v>
+        <v>0.02535801362162126</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>109</v>
+      </c>
+      <c r="J57" t="n">
+        <v>272</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1882562506.72517</v>
+        <v>1751065474.299057</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1577207619233501</v>
+        <v>0.1953492630512952</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03296042453058423</v>
+        <v>0.02395317181739855</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2512,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4760864690.791127</v>
+        <v>4448112848.053268</v>
       </c>
       <c r="F59" t="n">
-        <v>0.112829333989631</v>
+        <v>0.0796329000999858</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04748610945832722</v>
+        <v>0.041150815152451</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>131</v>
+      </c>
+      <c r="J59" t="n">
+        <v>272</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2547,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3181134893.83113</v>
+        <v>2324342222.469114</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1721698208730967</v>
+        <v>0.1442925952603928</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02268326960191099</v>
+        <v>0.03314739278790983</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>41</v>
+      </c>
+      <c r="J60" t="n">
+        <v>271</v>
+      </c>
+      <c r="K60" t="n">
+        <v>30.67131082881376</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2872018702.891729</v>
+        <v>2466371014.434632</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1142754682153465</v>
+        <v>0.1239994554572386</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0255788694893068</v>
+        <v>0.02786471937235726</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2107372737.359589</v>
+        <v>1347335130.034011</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1890434986203434</v>
+        <v>0.1178558700657321</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03415586124093637</v>
+        <v>0.045986887728365</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5023434692.858677</v>
+        <v>4427703544.09547</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0948111577647715</v>
+        <v>0.07694720023151706</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03113026981159119</v>
+        <v>0.04556958021414032</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>132</v>
+      </c>
+      <c r="J63" t="n">
+        <v>271</v>
+      </c>
+      <c r="K63" t="n">
+        <v>88.22402275472902</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3982422635.471879</v>
+        <v>4582831502.442037</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1571560063599676</v>
+        <v>0.1771936279155199</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02955544641315419</v>
+        <v>0.03144796869921109</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>134</v>
+      </c>
+      <c r="J64" t="n">
+        <v>271</v>
+      </c>
+      <c r="K64" t="n">
+        <v>92.17412590528208</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4287010736.796267</v>
+        <v>4362987324.167757</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1257253218624634</v>
+        <v>0.1380819340865269</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03078032071801845</v>
+        <v>0.02659482991370907</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>218</v>
+      </c>
+      <c r="J65" t="n">
+        <v>272</v>
+      </c>
+      <c r="K65" t="n">
+        <v>95.51904900967577</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3953762706.877879</v>
+        <v>5385771186.309288</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1056237578607322</v>
+        <v>0.1455862933200086</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03490313440335038</v>
+        <v>0.03425974545549921</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>134</v>
+      </c>
+      <c r="J66" t="n">
+        <v>272</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2234129000.356771</v>
+        <v>2409073851.192647</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09780451982427675</v>
+        <v>0.07767585886809782</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0326124984735039</v>
+        <v>0.03660068372134616</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4451558750.067066</v>
+        <v>5260162643.366807</v>
       </c>
       <c r="F68" t="n">
-        <v>0.132171778219836</v>
+        <v>0.1333485959229235</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04953285676900384</v>
+        <v>0.04423256250574328</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>140</v>
+      </c>
+      <c r="J68" t="n">
+        <v>272</v>
+      </c>
+      <c r="K68" t="n">
+        <v>95.46216595288395</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2094583402.834749</v>
+        <v>1921627056.606196</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1795529586996647</v>
+        <v>0.1684874933566715</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04603052503643312</v>
+        <v>0.05390191295752851</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2820739831.845284</v>
+        <v>2574021226.742703</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07043541104221555</v>
+        <v>0.06923348729569989</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04808949425650114</v>
+        <v>0.03772998830742678</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>270</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5068836403.258636</v>
+        <v>5562781532.077334</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1522302908893208</v>
+        <v>0.1659755194515179</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02146921205521664</v>
+        <v>0.02172451485595817</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>205</v>
+      </c>
+      <c r="J71" t="n">
+        <v>272</v>
+      </c>
+      <c r="K71" t="n">
+        <v>94.8714696711052</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1545091141.974648</v>
+        <v>1467227004.410071</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0778857691418063</v>
+        <v>0.1011461536078876</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03479932652595168</v>
+        <v>0.04367179621203855</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2690440476.881349</v>
+        <v>2431157227.187196</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09893940478119759</v>
+        <v>0.1006743860141603</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04990430111592958</v>
+        <v>0.03472440616993819</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3749865759.139795</v>
+        <v>2529292044.800451</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1607568619867453</v>
+        <v>0.1261048099267281</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02638414646117977</v>
+        <v>0.03036190118637156</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1981694796.942163</v>
+        <v>2105181082.757071</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1412542755029581</v>
+        <v>0.1433968436036641</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03697951954927055</v>
+        <v>0.02463919595752817</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3119,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4711019493.003716</v>
+        <v>3553453711.628499</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1144112635859912</v>
+        <v>0.1098500620452871</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02780397844551015</v>
+        <v>0.02706206518717232</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>127</v>
+      </c>
+      <c r="J76" t="n">
+        <v>272</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2260908092.618623</v>
+        <v>1918161675.974119</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1525180413168027</v>
+        <v>0.1394303459624583</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02622819911703158</v>
+        <v>0.0232564245654956</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4775961221.827338</v>
+        <v>3156462667.635914</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1144659774731978</v>
+        <v>0.1096207974876009</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04517406621907513</v>
+        <v>0.05556234685608775</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>137</v>
+      </c>
+      <c r="J78" t="n">
+        <v>271</v>
+      </c>
+      <c r="K78" t="n">
+        <v>48.86174185481959</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1589234155.919926</v>
+        <v>1482564323.251956</v>
       </c>
       <c r="F79" t="n">
-        <v>0.155785498798052</v>
+        <v>0.1426671567812564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03754422446777372</v>
+        <v>0.03964313112886521</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4887476409.656677</v>
+        <v>4684395282.60383</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0871701245154226</v>
+        <v>0.08549733223158693</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03703787174778658</v>
+        <v>0.02831857906556415</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>133</v>
+      </c>
+      <c r="J80" t="n">
+        <v>271</v>
+      </c>
+      <c r="K80" t="n">
+        <v>69.20834218134713</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4326698526.937857</v>
+        <v>4521088981.134406</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09580914793619009</v>
+        <v>0.08415442887724263</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03226776582792384</v>
+        <v>0.0261824934766843</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>125</v>
+      </c>
+      <c r="J81" t="n">
+        <v>271</v>
+      </c>
+      <c r="K81" t="n">
+        <v>83.17550467362852</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4845412758.565579</v>
+        <v>4610648117.206125</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1921349434535302</v>
+        <v>0.1753643130604352</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02102690113767033</v>
+        <v>0.0284437006507417</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>202</v>
+      </c>
+      <c r="J82" t="n">
+        <v>272</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1984091241.85261</v>
+        <v>2106650705.64631</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1324521057052711</v>
+        <v>0.1289031348503543</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03000965724516387</v>
+        <v>0.03157616093968568</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2436843312.896239</v>
+        <v>2013005515.3528</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08493596546000412</v>
+        <v>0.1197392064332022</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03982691429154823</v>
+        <v>0.03655548038909651</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3043149344.630847</v>
+        <v>2510321309.745308</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1586779703632135</v>
+        <v>0.1336581500724757</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04171664740327392</v>
+        <v>0.03525279282224719</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>37</v>
+      </c>
+      <c r="J85" t="n">
+        <v>265</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1854649465.635425</v>
+        <v>1983870184.476542</v>
       </c>
       <c r="F86" t="n">
-        <v>0.13162808720993</v>
+        <v>0.1579090202563016</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01792285964971272</v>
+        <v>0.01988770059703962</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1417766031.724266</v>
+        <v>1121552160.28062</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1222564031555739</v>
+        <v>0.1189135129917322</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02860990079237634</v>
+        <v>0.03369808586583514</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2526861600.24261</v>
+        <v>2529826490.093501</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1085068673223438</v>
+        <v>0.1301849358664416</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02544876798158976</v>
+        <v>0.03465898834158916</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3231934912.801881</v>
+        <v>2340661751.752004</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1273210780206579</v>
+        <v>0.09779269547601982</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02815100340376318</v>
+        <v>0.03890985024752944</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="n">
+        <v>32.5306704864354</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1741952481.107876</v>
+        <v>1393376713.208966</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1279504132547367</v>
+        <v>0.08441602815290211</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04452599126794109</v>
+        <v>0.05361688079691223</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1491617033.904802</v>
+        <v>1939455979.13345</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1622342346637548</v>
+        <v>0.149266936814226</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04207267042158214</v>
+        <v>0.04402795388465423</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2648123076.316702</v>
+        <v>1950833755.514766</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1080748201287246</v>
+        <v>0.07289217490740625</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03679198807096631</v>
+        <v>0.04298530569499626</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4626238354.443489</v>
+        <v>3202726543.194755</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1183456070433172</v>
+        <v>0.1184339118068077</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04578371567899532</v>
+        <v>0.05138077533268268</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>118</v>
+      </c>
+      <c r="J93" t="n">
+        <v>269</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2039828346.630666</v>
+        <v>2499264938.061476</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1018069012017131</v>
+        <v>0.1401860734046557</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0285273500185204</v>
+        <v>0.03384387675802351</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3277061565.630094</v>
+        <v>2265435584.805853</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08681146911449757</v>
+        <v>0.08473020180433784</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04156677575686098</v>
+        <v>0.04601031095171597</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2209211472.096357</v>
+        <v>1771596938.590697</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1316534123884094</v>
+        <v>0.1027008896658125</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03598621844640415</v>
+        <v>0.04584423093658132</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3714058674.293847</v>
+        <v>4225996195.653155</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1103115435594164</v>
+        <v>0.1508367042638826</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01790688940329848</v>
+        <v>0.02780572673741735</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>134</v>
+      </c>
+      <c r="J97" t="n">
+        <v>272</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3027561600.909665</v>
+        <v>3070186291.080446</v>
       </c>
       <c r="F98" t="n">
-        <v>0.106425470138685</v>
+        <v>0.1126063634714916</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02138142968259847</v>
+        <v>0.02964263901293419</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>65</v>
+      </c>
+      <c r="J98" t="n">
+        <v>266</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2520571283.949544</v>
+        <v>2649186641.536923</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1410379120051219</v>
+        <v>0.1014658664299391</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02143473726249295</v>
+        <v>0.02442582110583658</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3873616800.709845</v>
+        <v>3084972319.838852</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1470608927393822</v>
+        <v>0.1507870001272775</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02150921904661877</v>
+        <v>0.02219954614012398</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>115</v>
+      </c>
+      <c r="J100" t="n">
+        <v>271</v>
+      </c>
+      <c r="K100" t="n">
+        <v>46.48672900345667</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2586179105.866417</v>
+        <v>2571607561.852944</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1591979539935459</v>
+        <v>0.1529912498184913</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04406273608854024</v>
+        <v>0.05415949120901512</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>23</v>
+      </c>
+      <c r="J101" t="n">
+        <v>271</v>
+      </c>
+      <c r="K101" t="n">
+        <v>36.83243287911099</v>
       </c>
     </row>
   </sheetData>
